--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -1,62 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sukrit\Documents\NSE - Auto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16098" xWindow="240" yWindow="18"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,27 +66,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -395,30 +365,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RSI</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>26 Feb 2020</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ADANI54145</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>173.4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>26 Feb 2020</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PEC</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>26 Feb 2020</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IRE01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>26 Feb 2020</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -1,41 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sukrit\Documents\NSE - Auto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16098" xWindow="240" yWindow="18"/>
+    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>26 Feb 2020</t>
+  </si>
+  <si>
+    <t>ADANI54145</t>
+  </si>
+  <si>
+    <t>PEC</t>
+  </si>
+  <si>
+    <t>IRE01</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,18 +99,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -365,114 +407,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Qty</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RSI</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>26 Feb 2020</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>59</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>173.4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ADANI54145</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>173.4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>26 Feb 2020</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>19</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PEC</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>26 Feb 2020</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>IRE01</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>80.5</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>26 Feb 2020</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sukrit\Documents\NSE - Auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukrit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0160CDBE-AB7F-40B2-9BDA-510ACEFEA18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -43,13 +44,22 @@
   </si>
   <si>
     <t>IRE01</t>
+  </si>
+  <si>
+    <t>AGC</t>
+  </si>
+  <si>
+    <t>3 Mar 2020</t>
+  </si>
+  <si>
+    <t>DA01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +71,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,11 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,16 +424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -444,7 +461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -458,7 +475,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -472,7 +489,37 @@
         <v>41</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>390.95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>458.6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukrit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0160CDBE-AB7F-40B2-9BDA-510ACEFEA18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E9FC26-CDAF-4258-A3CD-F63F66F559EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,13 +46,13 @@
     <t>IRE01</t>
   </si>
   <si>
-    <t>AGC</t>
-  </si>
-  <si>
     <t>3 Mar 2020</t>
   </si>
   <si>
-    <t>DA01</t>
+    <t>TT03</t>
+  </si>
+  <si>
+    <t>DP04</t>
   </si>
 </sst>
 </file>
@@ -491,13 +491,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>390.95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -511,7 +511,7 @@
         <v>458.6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>7</v>
